--- a/biology/Zoologie/Calao_à_joues_argent/Calao_à_joues_argent.xlsx
+++ b/biology/Zoologie/Calao_à_joues_argent/Calao_à_joues_argent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calao_%C3%A0_joues_argent</t>
+          <t>Calao_à_joues_argent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bycanistes brevis
-Le Calao à joues argentées (Bycanistes brevis, synonyme Ceratogymna brevis)[1], ou à joues argent, est une  espèce d'oiseau de la famille des Bucerotidae. Son aire de répartition s'étend sur le Soudan, l'Éthiopie, le Kenya, la Tanzanie, le Malawi, la Zambie, le Zimbabwe, le Mozambique et l'Afrique du Sud.
+Le Calao à joues argentées (Bycanistes brevis, synonyme Ceratogymna brevis), ou à joues argent, est une  espèce d'oiseau de la famille des Bucerotidae. Son aire de répartition s'étend sur le Soudan, l'Éthiopie, le Kenya, la Tanzanie, le Malawi, la Zambie, le Zimbabwe, le Mozambique et l'Afrique du Sud.
 </t>
         </is>
       </c>
